--- a/tools/afas export.xlsx
+++ b/tools/afas export.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cqtgroep-my.sharepoint.com/personal/lroest_qconsultzorg_nl/Documents/3. Cursor/8. Adres Afstand Tool/Bewerkingen voor uploaden/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cqtgroep-my.sharepoint.com/personal/lroest_qconsultzorg_nl/Documents/3. Cursor/8. Adres Afstand Tool/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{8DACE228-8EBE-4710-A3D5-865AFB703015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407095D4-66EA-4C11-82DF-CB0485677549}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{8DACE228-8EBE-4710-A3D5-865AFB703015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{395DE03B-681A-4F16-9707-0F218F7496BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D99509A-B7CE-414B-9C06-5B5850C2F9F7}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3D99509A-B7CE-414B-9C06-5B5850C2F9F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -4378,26 +4378,26 @@
   <dimension ref="A1:L461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.9453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.62890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.05078125" customWidth="1"/>
-    <col min="11" max="11" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.89453125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>O&amp;C</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>83</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>100</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>103</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>110</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>117</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>122</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>124</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>127</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>129</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>141</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>144</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>148</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>151</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>154</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>157</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>160</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>162</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>165</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>168</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>171</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>175</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>179</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>181</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>184</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>186</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>188</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>191</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>194</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>197</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>201</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>205</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>208</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>211</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>214</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>217</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>219</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>221</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>223</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>225</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>227</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>229</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>232</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>233</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>235</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>237</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>239</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>242</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>244</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>248</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>250</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>252</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>255</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>258</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>262</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>265</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>268</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>273</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>275</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>278</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>280</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>283</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>285</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>287</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>289</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>293</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>295</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>297</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>300</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>303</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>305</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>307</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>310</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>313</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>317</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>320</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>O&amp;C</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>323</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>326</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>330</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>333</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>336</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>338</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>340</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>342</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>344</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>346</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>348</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>351</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>353</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>356</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>358</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>361</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>364</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>366</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>368</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>370</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>372</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>O&amp;C</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>375</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>377</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>379</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>381</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>383</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>386</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>388</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>391</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>393</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>395</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>400</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>402</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>404</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>406</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>408</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>410</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>412</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>414</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>418</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>420</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>421</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>424</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>430</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>433</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>436</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>439</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>442</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>444</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>446</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>448</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>450</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>452</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>454</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>456</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>457</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>459</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>461</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>462</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>466</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>468</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>470</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>473</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>475</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>477</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>480</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>482</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>484</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>486</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>489</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>492</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>495</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>500</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>503</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>507</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>510</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>512</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>514</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>516</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>519</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>522</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>526</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>528</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>O&amp;C</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>531</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>534</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>537</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>540</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>543</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>546</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>549</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>553</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>555</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>558</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>560</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>562</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>564</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>566</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>569</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>576</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>579</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>582</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>585</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>588</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>591</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>593</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>596</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>598</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>600</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>601</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>604</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>606</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>608</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>610</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>612</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>614</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>616</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>618</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>620</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>622</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>624</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>626</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>628</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>629</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>631</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>633</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>636</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>638</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>640</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>642</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>644</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>646</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>648</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>650</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>652</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>654</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>655</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>658</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>660</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>663</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>665</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>667</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>669</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>671</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>672</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>674</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>678</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>680</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>682</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>686</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>689</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>692</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>695</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>699</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>703</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>706</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>710</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>712</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>715</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>717</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>719</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>721</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>723</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>725</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>727</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>729</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>731</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>733</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>735</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>737</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>739</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>741</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>743</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>745</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>747</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>749</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>751</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>753</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>755</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>757</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>759</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>761</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>763</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>765</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>767</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>769</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>O&amp;C</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>772</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>774</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>776</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>778</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>780</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>782</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>783</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>785</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>787</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>789</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>791</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>793</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>795</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>797</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>799</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>801</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>802</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>804</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>805</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>807</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>809</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>811</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>813</v>
       </c>
@@ -15544,7 +15544,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>814</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>816</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>818</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>821</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>823</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>825</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>827</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>829</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>831</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>834</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>836</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>837</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>838</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>840</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>842</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>844</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>Marketing</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>849</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>852</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>858</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>861</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>864</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>867</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>869</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>872</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>875</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>878</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>881</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>884</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>887</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>891</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>894</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>897</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>900</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>903</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>906</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>909</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>913</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>916</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>919</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>922</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>926</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>928</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>931</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>935</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>938</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>941</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>944</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>947</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>950</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>953</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>956</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>959</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>962</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>965</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>968</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>971</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>974</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>977</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>980</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>983</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>986</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>989</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>992</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>995</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>998</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>1001</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>1004</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>1007</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>1011</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>1014</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>1017</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>1020</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>1023</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>1025</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>1028</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>1030</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>1033</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>1036</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>1039</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>1042</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>1045</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>1048</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>1051</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>1054</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>1058</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>1061</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>1064</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>O&amp;C</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>1067</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>1074</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>1078</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>1081</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>1084</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>1087</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>1090</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>1093</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>1096</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>1099</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>1102</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>1105</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>1108</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>1112</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>1115</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>1118</v>
       </c>
@@ -19326,7 +19326,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>1121</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>1124</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>1127</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>1129</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>1132</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>1135</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>O&amp;C</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>1138</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>1141</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>1144</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>1147</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>1150</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>1152</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>Digitalisering van zorg</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>1154</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>1157</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>1159</v>
       </c>
@@ -19884,7 +19884,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>1162</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>1165</v>
       </c>
@@ -19960,7 +19960,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>1168</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>1171</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>1174</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>1177</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>1180</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>1183</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>1186</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>1189</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>1192</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>1195</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>1197</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>1200</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>1203</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>1206</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>1209</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>1212</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>P&amp;O</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>1215</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>O&amp;C</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>1218</v>
       </c>
@@ -20622,7 +20622,7 @@
         <v>Integraal capaciteitsmanagement</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>1221</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>1224</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>Leren&amp;Ontwikkelen</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>1227</v>
       </c>
@@ -20730,7 +20730,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>1230</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>1234</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>1237</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>1240</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>1243</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>1246</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>Kwaliteit van zorg</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>1249</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>Sturen op resultaat</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>1251</v>
       </c>
@@ -21022,7 +21022,7 @@
         <v>Integrale zorg</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>1254</v>
       </c>
@@ -21058,7 +21058,7 @@
         <v>Staf</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>1257</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>1260</v>
       </c>
@@ -21120,7 +21120,7 @@
         <v>Marketing</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>1263</v>
       </c>
@@ -21156,7 +21156,7 @@
         <v>Q-Talent</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>1265</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>Marketing</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>1266</v>
       </c>
@@ -21244,13 +21244,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1270</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1272</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>854</v>
       </c>
@@ -21282,7 +21282,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
@@ -21290,7 +21290,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>934</v>
       </c>
@@ -21298,7 +21298,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>1111</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>82</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>140</v>
       </c>
@@ -21322,7 +21322,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>552</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>848</v>
       </c>
@@ -21354,7 +21354,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -21362,7 +21362,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>1073</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>1077</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>159</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>113</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>399</v>
       </c>
@@ -21418,7 +21418,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>575</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>502</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>465</v>
       </c>
